--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>16.37071020710267</v>
+        <v>7.637182438805332</v>
       </c>
       <c r="R2">
-        <v>147.336391863924</v>
+        <v>68.73464194924799</v>
       </c>
       <c r="S2">
-        <v>0.02836463384579085</v>
+        <v>0.01211483105718409</v>
       </c>
       <c r="T2">
-        <v>0.02836463384579085</v>
+        <v>0.01211483105718409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>47.797711643737</v>
+        <v>20.051542474304</v>
       </c>
       <c r="R3">
-        <v>430.179404793633</v>
+        <v>180.463882268736</v>
       </c>
       <c r="S3">
-        <v>0.08281647969390332</v>
+        <v>0.03180767926635305</v>
       </c>
       <c r="T3">
-        <v>0.08281647969390331</v>
+        <v>0.03180767926635305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>4.319988297511667</v>
+        <v>1.439213756629333</v>
       </c>
       <c r="R4">
-        <v>38.879894677605</v>
+        <v>12.952923809664</v>
       </c>
       <c r="S4">
-        <v>0.007485007353184732</v>
+        <v>0.002283018856292647</v>
       </c>
       <c r="T4">
-        <v>0.007485007353184732</v>
+        <v>0.002283018856292646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H5">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>1.320664261584333</v>
+        <v>0.5417685993813333</v>
       </c>
       <c r="R5">
-        <v>11.885978354259</v>
+        <v>4.875917394431999</v>
       </c>
       <c r="S5">
-        <v>0.002288242705365875</v>
+        <v>0.0008594052985093814</v>
       </c>
       <c r="T5">
-        <v>0.002288242705365875</v>
+        <v>0.0008594052985093814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>52.24322505948445</v>
+        <v>58.09716517068443</v>
       </c>
       <c r="R6">
-        <v>470.18902553536</v>
+        <v>522.8744865361599</v>
       </c>
       <c r="S6">
-        <v>0.09051897755129737</v>
+        <v>0.09215929389978818</v>
       </c>
       <c r="T6">
-        <v>0.09051897755129737</v>
+        <v>0.09215929389978818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>152.5350198703467</v>
@@ -883,10 +883,10 @@
         <v>1372.81517883312</v>
       </c>
       <c r="S7">
-        <v>0.264289082913804</v>
+        <v>0.2419656739694877</v>
       </c>
       <c r="T7">
-        <v>0.264289082913804</v>
+        <v>0.2419656739694877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>13.78621440524445</v>
+        <v>10.94830979943111</v>
       </c>
       <c r="R8">
-        <v>124.0759296472</v>
+        <v>98.53478819488001</v>
       </c>
       <c r="S8">
-        <v>0.02388661938164828</v>
+        <v>0.01736725875604054</v>
       </c>
       <c r="T8">
-        <v>0.02388661938164828</v>
+        <v>0.01736725875604054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>63.15952</v>
       </c>
       <c r="I9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>4.214585645528889</v>
+        <v>4.121313069937778</v>
       </c>
       <c r="R9">
-        <v>37.93127080976</v>
+        <v>37.09181762944</v>
       </c>
       <c r="S9">
-        <v>0.007302381945243071</v>
+        <v>0.00653762195366269</v>
       </c>
       <c r="T9">
-        <v>0.007302381945243071</v>
+        <v>0.00653762195366269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H10">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>66.73223762121957</v>
+        <v>96.52172091896156</v>
       </c>
       <c r="R10">
-        <v>600.590138590976</v>
+        <v>868.695488270654</v>
       </c>
       <c r="S10">
-        <v>0.1156232968448106</v>
+        <v>0.1531120084732202</v>
       </c>
       <c r="T10">
-        <v>0.1156232968448105</v>
+        <v>0.1531120084732202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H11">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>194.8387217664213</v>
+        <v>253.4192946426754</v>
       </c>
       <c r="R11">
-        <v>1753.548495897792</v>
+        <v>2280.773651784078</v>
       </c>
       <c r="S11">
-        <v>0.3375863925249069</v>
+        <v>0.4019979836578348</v>
       </c>
       <c r="T11">
-        <v>0.3375863925249069</v>
+        <v>0.4019979836578348</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H12">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>17.60965052483556</v>
+        <v>18.18935054559689</v>
       </c>
       <c r="R12">
-        <v>158.48685472352</v>
+        <v>163.704154910372</v>
       </c>
       <c r="S12">
-        <v>0.0305112779452041</v>
+        <v>0.02885369187727251</v>
       </c>
       <c r="T12">
-        <v>0.0305112779452041</v>
+        <v>0.0288536918772725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H13">
+        <v>104.932238</v>
+      </c>
+      <c r="I13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1957573333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.587272</v>
+      </c>
+      <c r="O13">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="P13">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="Q13">
+        <v>6.847085030526224</v>
+      </c>
+      <c r="R13">
+        <v>61.62376527473601</v>
+      </c>
+      <c r="S13">
+        <v>0.01086150279159434</v>
+      </c>
+      <c r="T13">
+        <v>0.01086150279159434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>26.89201066666667</v>
-      </c>
-      <c r="H13">
-        <v>80.67603200000001</v>
-      </c>
-      <c r="I13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="J13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2001876666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.600563</v>
-      </c>
-      <c r="O13">
-        <v>0.01891823194544989</v>
-      </c>
-      <c r="P13">
-        <v>0.01891823194544989</v>
-      </c>
-      <c r="Q13">
-        <v>5.383448867335111</v>
-      </c>
-      <c r="R13">
-        <v>48.451039806016</v>
-      </c>
-      <c r="S13">
-        <v>0.009327607294840942</v>
-      </c>
-      <c r="T13">
-        <v>0.009327607294840942</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004706</v>
+      </c>
+      <c r="H14">
+        <v>0.014118</v>
+      </c>
+      <c r="I14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.759544333333333</v>
+      </c>
+      <c r="N14">
+        <v>8.278632999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2574067337278401</v>
+      </c>
+      <c r="P14">
+        <v>0.2574067337278401</v>
+      </c>
+      <c r="Q14">
+        <v>0.01298641563266667</v>
+      </c>
+      <c r="R14">
+        <v>0.116877740694</v>
+      </c>
+      <c r="S14">
+        <v>2.060029764756302E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.060029764756302E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004706</v>
+      </c>
+      <c r="H15">
+        <v>0.014118</v>
+      </c>
+      <c r="I15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6758254232987829</v>
+      </c>
+      <c r="P15">
+        <v>0.6758254232987829</v>
+      </c>
+      <c r="Q15">
+        <v>0.034096038262</v>
+      </c>
+      <c r="R15">
+        <v>0.306864344358</v>
+      </c>
+      <c r="S15">
+        <v>5.408640510727802E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.408640510727802E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004706</v>
+      </c>
+      <c r="H16">
+        <v>0.014118</v>
+      </c>
+      <c r="I16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5200313333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.560094</v>
+      </c>
+      <c r="O16">
+        <v>0.0485078515798926</v>
+      </c>
+      <c r="P16">
+        <v>0.0485078515798926</v>
+      </c>
+      <c r="Q16">
+        <v>0.002447267454666667</v>
+      </c>
+      <c r="R16">
+        <v>0.022025407092</v>
+      </c>
+      <c r="S16">
+        <v>3.88209028690814E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.882090286908139E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004706</v>
+      </c>
+      <c r="H17">
+        <v>0.014118</v>
+      </c>
+      <c r="I17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1957573333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.587272</v>
+      </c>
+      <c r="O17">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="P17">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="Q17">
+        <v>0.0009212340106666667</v>
+      </c>
+      <c r="R17">
+        <v>0.008291106096000001</v>
+      </c>
+      <c r="S17">
+        <v>1.461349718012579E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.461349718012579E-06</v>
       </c>
     </row>
   </sheetData>
